--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="2840" windowWidth="14400" windowHeight="9660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,54 @@
   </si>
   <si>
     <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movementspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleshooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sidewayshooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripleshooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,15 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +484,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -446,8 +504,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -460,13 +524,19 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -474,13 +544,19 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -488,13 +564,19 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -502,13 +584,19 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -516,13 +604,19 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -530,19 +624,531 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>1500</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1500</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1500</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
-    <sheet name="enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="level" sheetId="3" r:id="rId3"/>
+    <sheet name="ball" sheetId="4" r:id="rId2"/>
+    <sheet name="enemy" sheetId="2" r:id="rId3"/>
+    <sheet name="level" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +137,66 @@
   </si>
   <si>
     <t>bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffea00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#fe0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6500ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff5a00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff009a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#06ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0075ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +532,7 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +551,11 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,8 +574,11 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,8 +597,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -550,8 +620,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -570,8 +643,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -590,8 +666,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -610,8 +689,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -630,8 +712,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -650,8 +735,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -670,8 +758,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -690,8 +781,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -710,8 +804,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -730,8 +827,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -750,8 +850,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -770,8 +873,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -790,8 +896,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -810,8 +919,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -830,8 +942,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -850,8 +965,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -870,8 +988,11 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -890,8 +1011,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -910,8 +1034,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -930,8 +1057,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -950,8 +1080,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -970,8 +1103,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -990,8 +1126,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1010,8 +1149,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1030,8 +1172,11 @@
       <c r="F28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1050,8 +1195,11 @@
       <c r="F29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1070,8 +1218,11 @@
       <c r="F30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1090,8 +1241,11 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1110,8 +1264,11 @@
       <c r="F32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1130,8 +1287,11 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1149,6 +1309,9 @@
       </c>
       <c r="F34">
         <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1158,6 +1321,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1257,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
     <sheet name="ball" sheetId="4" r:id="rId2"/>
-    <sheet name="enemy" sheetId="2" r:id="rId3"/>
-    <sheet name="level" sheetId="3" r:id="rId4"/>
+    <sheet name="reward" sheetId="5" r:id="rId3"/>
+    <sheet name="enemy" sheetId="2" r:id="rId4"/>
+    <sheet name="level" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,18 @@
   </si>
   <si>
     <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,6 +1504,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1590,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,10 +1617,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1764,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1964,6 +1964,614 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demageLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demageCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,19 +581,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +617,20 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -590,8 +652,20 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -613,8 +687,20 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -636,8 +722,20 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -659,8 +757,20 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -682,8 +792,20 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -705,8 +827,20 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -728,8 +862,20 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -751,8 +897,20 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -774,8 +932,20 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -797,8 +967,20 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -820,8 +1002,20 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -843,8 +1037,20 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -866,8 +1072,20 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -889,8 +1107,20 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -912,8 +1142,20 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -935,8 +1177,20 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -958,8 +1212,20 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -981,8 +1247,20 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1004,8 +1282,20 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1027,8 +1317,20 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1050,8 +1352,20 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1073,8 +1387,20 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1096,8 +1422,20 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1119,8 +1457,20 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1142,8 +1492,20 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1165,8 +1527,20 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1188,8 +1562,20 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1211,8 +1597,20 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1234,8 +1632,20 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1257,8 +1667,20 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1280,8 +1702,20 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1303,8 +1737,20 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1324,6 +1770,18 @@
         <v>3</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
     </row>
@@ -1507,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1573,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1584,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1595,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1606,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1628,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1639,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1650,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1766,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
-    <sheet name="ball" sheetId="4" r:id="rId2"/>
-    <sheet name="reward" sheetId="5" r:id="rId3"/>
-    <sheet name="enemy" sheetId="2" r:id="rId4"/>
-    <sheet name="level" sheetId="3" r:id="rId5"/>
+    <sheet name="upgrade" sheetId="6" r:id="rId2"/>
+    <sheet name="ball" sheetId="4" r:id="rId3"/>
+    <sheet name="reward" sheetId="5" r:id="rId4"/>
+    <sheet name="enemy" sheetId="2" r:id="rId5"/>
+    <sheet name="level" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,39 +214,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>demageLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demageCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>bulletPowerLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹伤害等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletPowerCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeedCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹伤害价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +592,7 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,20 +614,8 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -652,20 +637,8 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -687,20 +660,8 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -722,20 +683,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -757,20 +706,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -792,20 +729,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -827,20 +752,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -862,20 +775,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -897,20 +798,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -932,20 +821,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -967,20 +844,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1002,20 +867,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1037,20 +890,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1072,20 +913,8 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1107,20 +936,8 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1142,20 +959,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1177,20 +982,8 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1212,20 +1005,8 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1247,20 +1028,8 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1282,20 +1051,8 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1317,20 +1074,8 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1352,20 +1097,8 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1387,20 +1120,8 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1422,20 +1143,8 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1457,20 +1166,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1492,20 +1189,8 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1527,20 +1212,8 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1562,20 +1235,8 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1597,20 +1258,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1632,20 +1281,8 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1667,20 +1304,8 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1702,20 +1327,8 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1737,20 +1350,8 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1770,18 +1371,6 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
         <v>0</v>
       </c>
     </row>
@@ -1792,6 +1381,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6000</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7000</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8000</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9000</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1961,11 +1831,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +1990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2220,7 +2090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockedCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解琐价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +604,7 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,8 +626,11 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -637,8 +652,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -660,8 +678,11 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -683,8 +704,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -706,8 +730,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -729,8 +756,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -752,8 +782,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -775,8 +808,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -798,8 +834,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -821,8 +860,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -844,8 +886,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -867,8 +912,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -890,8 +938,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -913,8 +964,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -936,8 +990,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -959,8 +1016,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -982,8 +1042,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1005,8 +1068,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1028,8 +1094,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1051,8 +1120,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1074,8 +1146,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1097,8 +1172,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1120,8 +1198,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1143,8 +1224,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1166,8 +1250,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1189,8 +1276,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1212,8 +1302,11 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1235,8 +1328,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1258,8 +1354,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1281,8 +1380,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1304,8 +1406,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1327,8 +1432,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1350,8 +1458,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1372,6 +1483,9 @@
       </c>
       <c r="G34">
         <v>0</v>
+      </c>
+      <c r="H34">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1663,15 +1777,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,8 +1798,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1698,8 +1815,11 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1712,8 +1832,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1726,8 +1849,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1740,8 +1866,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1754,8 +1883,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1768,8 +1900,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1782,8 +1917,11 @@
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1796,8 +1934,11 @@
       <c r="D9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1810,8 +1951,11 @@
       <c r="D10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1823,6 +1967,9 @@
       </c>
       <c r="D11">
         <v>8</v>
+      </c>
+      <c r="E11">
+        <v>35000</v>
       </c>
     </row>
   </sheetData>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,26 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +624,7 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +649,11 @@
       <c r="H1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -655,8 +678,11 @@
       <c r="H2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -681,8 +707,11 @@
       <c r="H3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -707,8 +736,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -733,8 +765,11 @@
       <c r="H5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -759,8 +794,11 @@
       <c r="H6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -785,8 +823,11 @@
       <c r="H7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -811,8 +852,11 @@
       <c r="H8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -837,8 +881,11 @@
       <c r="H9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -863,8 +910,11 @@
       <c r="H10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -889,8 +939,11 @@
       <c r="H11">
         <v>7000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -915,8 +968,11 @@
       <c r="H12">
         <v>8000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -941,8 +997,11 @@
       <c r="H13">
         <v>9000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -967,8 +1026,11 @@
       <c r="H14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -993,8 +1055,11 @@
       <c r="H15">
         <v>11000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1019,8 +1084,11 @@
       <c r="H16">
         <v>12000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1045,8 +1113,11 @@
       <c r="H17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1071,8 +1142,11 @@
       <c r="H18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1097,8 +1171,11 @@
       <c r="H19">
         <v>15000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1123,8 +1200,11 @@
       <c r="H20">
         <v>16000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1149,8 +1229,11 @@
       <c r="H21">
         <v>17000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1175,8 +1258,11 @@
       <c r="H22">
         <v>18000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1201,8 +1287,11 @@
       <c r="H23">
         <v>19000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1227,8 +1316,11 @@
       <c r="H24">
         <v>20000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1253,8 +1345,11 @@
       <c r="H25">
         <v>21000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1279,8 +1374,11 @@
       <c r="H26">
         <v>22000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1305,8 +1403,11 @@
       <c r="H27">
         <v>23000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1331,8 +1432,11 @@
       <c r="H28">
         <v>24000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1357,8 +1461,11 @@
       <c r="H29">
         <v>25000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1383,8 +1490,11 @@
       <c r="H30">
         <v>26000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1409,8 +1519,11 @@
       <c r="H31">
         <v>27000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1435,8 +1548,11 @@
       <c r="H32">
         <v>28000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1461,8 +1577,11 @@
       <c r="H33">
         <v>29000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1486,6 +1605,9 @@
       </c>
       <c r="H34">
         <v>30000</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1777,15 +1899,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,8 +1923,11 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1818,8 +1943,11 @@
       <c r="E2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1835,8 +1963,11 @@
       <c r="E3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1852,8 +1983,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1869,8 +2003,11 @@
       <c r="E5">
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1886,8 +2023,11 @@
       <c r="E6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1903,8 +2043,11 @@
       <c r="E7">
         <v>15000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1920,8 +2063,11 @@
       <c r="E8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1937,8 +2083,11 @@
       <c r="E9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1954,8 +2103,11 @@
       <c r="E10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1970,6 +2122,9 @@
       </c>
       <c r="E11">
         <v>35000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>300</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -2294,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2380,9 +2380,23 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>45</v>
       </c>
     </row>
@@ -2396,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2487,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2495,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2503,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2511,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -17,7 +17,8 @@
     <sheet name="ball" sheetId="4" r:id="rId3"/>
     <sheet name="reward" sheetId="5" r:id="rId4"/>
     <sheet name="enemy" sheetId="2" r:id="rId5"/>
-    <sheet name="level" sheetId="3" r:id="rId6"/>
+    <sheet name="type4" sheetId="7" r:id="rId6"/>
+    <sheet name="level" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +288,22 @@
   </si>
   <si>
     <t>拥有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,7 +2314,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2394,10 +2411,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2408,10 +2425,224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2461,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2469,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2477,7 +2708,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2485,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2493,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2501,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2509,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2525,695 +2756,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>47</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>48</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>49</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>52</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>54</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>55</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>64</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>65</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>66</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>67</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>68</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>69</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>71</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>72</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>73</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>75</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>76</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>77</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>78</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>79</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>80</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>81</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>82</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>83</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>84</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>85</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>86</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>87</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>88</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>89</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>90</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>91</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>92</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>93</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>94</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>95</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>96</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excelCfg/GameData.xlsx
+++ b/excelCfg/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="ball" sheetId="4" r:id="rId3"/>
     <sheet name="reward" sheetId="5" r:id="rId4"/>
     <sheet name="enemy" sheetId="2" r:id="rId5"/>
-    <sheet name="type4" sheetId="7" r:id="rId6"/>
-    <sheet name="level" sheetId="3" r:id="rId7"/>
+    <sheet name="level" sheetId="3" r:id="rId6"/>
+    <sheet name="type4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2311,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2400,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2414,6 +2414,20 @@
         <v>8</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
@@ -2425,210 +2439,124 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2639,124 +2567,210 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
